--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H2">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I2">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J2">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.230716</v>
+        <v>3.646930333333334</v>
       </c>
       <c r="N2">
-        <v>9.692148</v>
+        <v>10.940791</v>
       </c>
       <c r="O2">
-        <v>0.06879093257936443</v>
+        <v>0.07359174864485112</v>
       </c>
       <c r="P2">
-        <v>0.06879093257936443</v>
+        <v>0.07359174864485112</v>
       </c>
       <c r="Q2">
-        <v>0.8470603511346666</v>
+        <v>1.106003346546556</v>
       </c>
       <c r="R2">
-        <v>7.623543160211999</v>
+        <v>9.954030118919</v>
       </c>
       <c r="S2">
-        <v>0.009992971901795636</v>
+        <v>0.01104930141402271</v>
       </c>
       <c r="T2">
-        <v>0.009992971901795634</v>
+        <v>0.01104930141402271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H3">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I3">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J3">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>114.518478</v>
       </c>
       <c r="O3">
-        <v>0.8128056751908276</v>
+        <v>0.7702930298336665</v>
       </c>
       <c r="P3">
-        <v>0.8128056751908275</v>
+        <v>0.7702930298336667</v>
       </c>
       <c r="Q3">
-        <v>10.00852052466466</v>
+        <v>11.57666021674467</v>
       </c>
       <c r="R3">
-        <v>90.07668472198199</v>
+        <v>104.189941950702</v>
       </c>
       <c r="S3">
-        <v>0.1180728908483859</v>
+        <v>0.1156542685896412</v>
       </c>
       <c r="T3">
-        <v>0.1180728908483859</v>
+        <v>0.1156542685896412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H4">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I4">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J4">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.981888</v>
+        <v>2.694317333333334</v>
       </c>
       <c r="N4">
-        <v>5.945664000000001</v>
+        <v>8.082952000000001</v>
       </c>
       <c r="O4">
-        <v>0.04219990979951548</v>
+        <v>0.05436888172824036</v>
       </c>
       <c r="P4">
-        <v>0.04219990979951548</v>
+        <v>0.05436888172824036</v>
       </c>
       <c r="Q4">
-        <v>0.5196305540906667</v>
+        <v>0.8171047195742223</v>
       </c>
       <c r="R4">
-        <v>4.676674986816001</v>
+        <v>7.353942476168</v>
       </c>
       <c r="S4">
-        <v>0.006130204913247081</v>
+        <v>0.008163118458535377</v>
       </c>
       <c r="T4">
-        <v>0.006130204913247079</v>
+        <v>0.008163118458535377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H5">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I5">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J5">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.578841</v>
+        <v>5.042166</v>
       </c>
       <c r="N5">
-        <v>10.736523</v>
+        <v>15.126498</v>
       </c>
       <c r="O5">
-        <v>0.07620348243029261</v>
+        <v>0.1017463397932419</v>
       </c>
       <c r="P5">
-        <v>0.0762034824302926</v>
+        <v>0.1017463397932419</v>
       </c>
       <c r="Q5">
-        <v>0.938335128843</v>
+        <v>1.529136002098</v>
       </c>
       <c r="R5">
-        <v>8.445016159587</v>
+        <v>13.762224018882</v>
       </c>
       <c r="S5">
-        <v>0.01106976210660244</v>
+        <v>0.0152765221217197</v>
       </c>
       <c r="T5">
-        <v>0.01106976210660243</v>
+        <v>0.0152765221217197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.903225</v>
       </c>
       <c r="I6">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J6">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.230716</v>
+        <v>3.646930333333334</v>
       </c>
       <c r="N6">
-        <v>9.692148</v>
+        <v>10.940791</v>
       </c>
       <c r="O6">
-        <v>0.06879093257936443</v>
+        <v>0.07359174864485112</v>
       </c>
       <c r="P6">
-        <v>0.06879093257936443</v>
+        <v>0.07359174864485112</v>
       </c>
       <c r="Q6">
-        <v>4.203403819699999</v>
+        <v>4.744929883441667</v>
       </c>
       <c r="R6">
-        <v>37.8306343773</v>
+        <v>42.704368950975</v>
       </c>
       <c r="S6">
-        <v>0.0495885519914798</v>
+        <v>0.04740325663051125</v>
       </c>
       <c r="T6">
-        <v>0.04958855199147979</v>
+        <v>0.04740325663051125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.903225</v>
       </c>
       <c r="I7">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J7">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>114.518478</v>
       </c>
       <c r="O7">
-        <v>0.8128056751908276</v>
+        <v>0.7702930298336665</v>
       </c>
       <c r="P7">
-        <v>0.8128056751908275</v>
+        <v>0.7702930298336667</v>
       </c>
       <c r="Q7">
         <v>49.66570958794999</v>
@@ -883,10 +883,10 @@
         <v>446.9913862915499</v>
       </c>
       <c r="S7">
-        <v>0.5859181576971519</v>
+        <v>0.4961751670029668</v>
       </c>
       <c r="T7">
-        <v>0.5859181576971517</v>
+        <v>0.4961751670029668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.903225</v>
       </c>
       <c r="I8">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J8">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.981888</v>
+        <v>2.694317333333334</v>
       </c>
       <c r="N8">
-        <v>5.945664000000001</v>
+        <v>8.082952000000001</v>
       </c>
       <c r="O8">
-        <v>0.04219990979951548</v>
+        <v>0.05436888172824036</v>
       </c>
       <c r="P8">
-        <v>0.04219990979951548</v>
+        <v>0.05436888172824036</v>
       </c>
       <c r="Q8">
-        <v>2.5785849296</v>
+        <v>3.505508924466667</v>
       </c>
       <c r="R8">
-        <v>23.2072643664</v>
+        <v>31.5495803202</v>
       </c>
       <c r="S8">
-        <v>0.03042017810580996</v>
+        <v>0.03502107370372985</v>
       </c>
       <c r="T8">
-        <v>0.03042017810580995</v>
+        <v>0.03502107370372985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.903225</v>
       </c>
       <c r="I9">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J9">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.578841</v>
+        <v>5.042166</v>
       </c>
       <c r="N9">
-        <v>10.736523</v>
+        <v>15.126498</v>
       </c>
       <c r="O9">
-        <v>0.07620348243029261</v>
+        <v>0.1017463397932419</v>
       </c>
       <c r="P9">
-        <v>0.0762034824302926</v>
+        <v>0.1017463397932419</v>
       </c>
       <c r="Q9">
-        <v>4.656340554075</v>
+        <v>6.56023612845</v>
       </c>
       <c r="R9">
-        <v>41.907064986675</v>
+        <v>59.04212515605</v>
       </c>
       <c r="S9">
-        <v>0.05493195409244873</v>
+        <v>0.06553870434184468</v>
       </c>
       <c r="T9">
-        <v>0.05493195409244871</v>
+        <v>0.06553870434184468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H10">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I10">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J10">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.230716</v>
+        <v>3.646930333333334</v>
       </c>
       <c r="N10">
-        <v>9.692148</v>
+        <v>10.940791</v>
       </c>
       <c r="O10">
-        <v>0.06879093257936443</v>
+        <v>0.07359174864485112</v>
       </c>
       <c r="P10">
-        <v>0.06879093257936443</v>
+        <v>0.07359174864485112</v>
       </c>
       <c r="Q10">
-        <v>0.780641137796</v>
+        <v>1.515389511114889</v>
       </c>
       <c r="R10">
-        <v>7.025770240163999</v>
+        <v>13.638505600034</v>
       </c>
       <c r="S10">
-        <v>0.009209408686089007</v>
+        <v>0.01513919060031715</v>
       </c>
       <c r="T10">
-        <v>0.009209408686089006</v>
+        <v>0.01513919060031715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H11">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I11">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J11">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>114.518478</v>
       </c>
       <c r="O11">
-        <v>0.8128056751908276</v>
+        <v>0.7702930298336665</v>
       </c>
       <c r="P11">
-        <v>0.8128056751908275</v>
+        <v>0.7702930298336667</v>
       </c>
       <c r="Q11">
-        <v>9.223738119205999</v>
+        <v>15.86175079937466</v>
       </c>
       <c r="R11">
-        <v>83.01364307285399</v>
+        <v>142.755757194372</v>
       </c>
       <c r="S11">
-        <v>0.1088146266452899</v>
+        <v>0.1584635942410586</v>
       </c>
       <c r="T11">
-        <v>0.1088146266452898</v>
+        <v>0.1584635942410587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H12">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I12">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J12">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.981888</v>
+        <v>2.694317333333334</v>
       </c>
       <c r="N12">
-        <v>5.945664000000001</v>
+        <v>8.082952000000001</v>
       </c>
       <c r="O12">
-        <v>0.04219990979951548</v>
+        <v>0.05436888172824036</v>
       </c>
       <c r="P12">
-        <v>0.04219990979951548</v>
+        <v>0.05436888172824036</v>
       </c>
       <c r="Q12">
-        <v>0.4788855793280001</v>
+        <v>1.119555311827555</v>
       </c>
       <c r="R12">
-        <v>4.309970213952001</v>
+        <v>10.075997806448</v>
       </c>
       <c r="S12">
-        <v>0.005649526780458443</v>
+        <v>0.01118468956597514</v>
       </c>
       <c r="T12">
-        <v>0.005649526780458441</v>
+        <v>0.01118468956597514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H13">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I13">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J13">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.578841</v>
+        <v>5.042166</v>
       </c>
       <c r="N13">
-        <v>10.736523</v>
+        <v>15.126498</v>
       </c>
       <c r="O13">
-        <v>0.07620348243029261</v>
+        <v>0.1017463397932419</v>
       </c>
       <c r="P13">
-        <v>0.0762034824302926</v>
+        <v>0.1017463397932419</v>
       </c>
       <c r="Q13">
-        <v>0.8647589296710001</v>
+        <v>2.095144346428</v>
       </c>
       <c r="R13">
-        <v>7.782830367039</v>
+        <v>18.856299117852</v>
       </c>
       <c r="S13">
-        <v>0.01020176623124146</v>
+        <v>0.02093111332967755</v>
       </c>
       <c r="T13">
-        <v>0.01020176623124145</v>
+        <v>0.02093111332967755</v>
       </c>
     </row>
   </sheetData>
